--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.62186438247</v>
+        <v>87906.6218643825</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="C2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D2" t="n">
         <v>21501.48110628927</v>
@@ -26335,19 +26335,19 @@
         <v>21501.48110628928</v>
       </c>
       <c r="J2" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="K2" t="n">
         <v>21501.48110628927</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="L2" t="n">
         <v>21501.48110628928</v>
       </c>
       <c r="M2" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="N2" t="n">
         <v>21501.48110628927</v>
-      </c>
-      <c r="N2" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="O2" t="n">
         <v>21501.48110628928</v>
@@ -26522,7 +26522,7 @@
         <v>-12126.11889371072</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="D6" t="n">
         <v>-12126.11889371073</v>
@@ -26543,19 +26543,19 @@
         <v>21501.48110628928</v>
       </c>
       <c r="J6" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="K6" t="n">
         <v>21501.48110628927</v>
-      </c>
-      <c r="K6" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="L6" t="n">
         <v>21501.48110628928</v>
       </c>
       <c r="M6" t="n">
+        <v>21501.48110628928</v>
+      </c>
+      <c r="N6" t="n">
         <v>21501.48110628927</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21501.48110628928</v>
       </c>
       <c r="O6" t="n">
         <v>21501.48110628928</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.6218643825</v>
+        <v>87906.62186438248</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="D2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="E2" t="n">
         <v>21501.48110628928</v>
@@ -26338,7 +26340,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="K2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="L2" t="n">
         <v>21501.48110628928</v>
@@ -26347,13 +26349,13 @@
         <v>21501.48110628928</v>
       </c>
       <c r="N2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="O2" t="n">
         <v>21501.48110628928</v>
       </c>
       <c r="P2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
     </row>
     <row r="3">
@@ -26525,7 +26527,7 @@
         <v>-12126.11889371072</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371073</v>
+        <v>-12126.11889371072</v>
       </c>
       <c r="E6" t="n">
         <v>21501.48110628928</v>
@@ -26546,7 +26548,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="K6" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="L6" t="n">
         <v>21501.48110628928</v>
@@ -26555,13 +26557,13 @@
         <v>21501.48110628928</v>
       </c>
       <c r="N6" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="O6" t="n">
         <v>21501.48110628928</v>
       </c>
       <c r="P6" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87906.62186438248</v>
+        <v>-38854.33200488254</v>
       </c>
     </row>
     <row r="7">
@@ -26355,7 +26355,7 @@
         <v>21501.48110628928</v>
       </c>
       <c r="P2" t="n">
-        <v>21501.48110628927</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.79286374549</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371072</v>
+        <v>-27276.79286374548</v>
       </c>
       <c r="E6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.80713625452</v>
       </c>
       <c r="F6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.80713625452</v>
       </c>
       <c r="G6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.80713625452</v>
       </c>
       <c r="H6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="I6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="J6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="K6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="L6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254516</v>
       </c>
       <c r="M6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.80713625452</v>
       </c>
       <c r="N6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254512</v>
       </c>
       <c r="O6" t="n">
-        <v>21501.48110628928</v>
+        <v>6350.807136254512</v>
       </c>
       <c r="P6" t="n">
-        <v>21501.48110628927</v>
+        <v>6350.807136254512</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38854.33200488254</v>
+        <v>75230.52647745598</v>
       </c>
     </row>
     <row r="7">
@@ -26334,13 +26334,13 @@
         <v>21501.48110628928</v>
       </c>
       <c r="I2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="J2" t="n">
         <v>21501.48110628928</v>
       </c>
       <c r="K2" t="n">
-        <v>21501.48110628928</v>
+        <v>21501.48110628927</v>
       </c>
       <c r="L2" t="n">
         <v>21501.48110628928</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27276.79286374549</v>
+        <v>-13641.18629071419</v>
       </c>
       <c r="C6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.1862907142</v>
       </c>
       <c r="D6" t="n">
-        <v>-27276.79286374548</v>
+        <v>-13641.18629071419</v>
       </c>
       <c r="E6" t="n">
-        <v>6350.80713625452</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="F6" t="n">
-        <v>6350.80713625452</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="G6" t="n">
-        <v>6350.80713625452</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="H6" t="n">
-        <v>6350.807136254516</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="I6" t="n">
-        <v>6350.807136254516</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="J6" t="n">
-        <v>6350.807136254516</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="K6" t="n">
-        <v>6350.807136254516</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="L6" t="n">
-        <v>6350.807136254516</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="M6" t="n">
-        <v>6350.80713625452</v>
+        <v>19986.4137092858</v>
       </c>
       <c r="N6" t="n">
-        <v>6350.807136254512</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="O6" t="n">
-        <v>6350.807136254512</v>
+        <v>19986.41370928581</v>
       </c>
       <c r="P6" t="n">
-        <v>6350.807136254512</v>
+        <v>19986.4137092858</v>
       </c>
     </row>
   </sheetData>
